--- a/zutnlp-text/doc/log/语言处理工作日志.xlsx
+++ b/zutnlp-text/doc/log/语言处理工作日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>日志报告</t>
   </si>
@@ -125,6 +125,100 @@
   </si>
   <si>
     <t>2018.07.23</t>
+  </si>
+  <si>
+    <t>zutnlp_text模块进行
+建立完成</t>
+  </si>
+  <si>
+    <t>对vue不了解</t>
+  </si>
+  <si>
+    <t>2018.07.24</t>
+  </si>
+  <si>
+    <t>学习spring boot和vue</t>
+  </si>
+  <si>
+    <t>每个人建立自己的模块并对dao层
+进行编写</t>
+  </si>
+  <si>
+    <t>在service无法连接数据库</t>
+  </si>
+  <si>
+    <t>2018.07.25</t>
+  </si>
+  <si>
+    <t>对service进行学习</t>
+  </si>
+  <si>
+    <t>已超过将数据跑入数据库</t>
+  </si>
+  <si>
+    <t>对json与controller之间的联
+系不太理解</t>
+  </si>
+  <si>
+    <t>2018.07.26</t>
+  </si>
+  <si>
+    <t>学习vue和web层的结构</t>
+  </si>
+  <si>
+    <t>建立named模块，对web层进行
+编写</t>
+  </si>
+  <si>
+    <t>对view层不太了解</t>
+  </si>
+  <si>
+    <t>2018.07.27</t>
+  </si>
+  <si>
+    <t>使用spring+vue跑出页面</t>
+  </si>
+  <si>
+    <t>学习vue、css、js</t>
+  </si>
+  <si>
+    <t>HTML无法调用css和js文件</t>
+  </si>
+  <si>
+    <t>2018.07.28</t>
+  </si>
+  <si>
+    <t>完成数据交换</t>
+  </si>
+  <si>
+    <t>尝试数据交换</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>2018.07.30</t>
+  </si>
+  <si>
+    <t>前后端的数据交换</t>
+  </si>
+  <si>
+    <t>大家都心不在焉</t>
+  </si>
+  <si>
+    <t>对数据交换比较迷</t>
+  </si>
+  <si>
+    <t>2018.07.31</t>
+  </si>
+  <si>
+    <t>在网页上显示数据库信息</t>
+  </si>
+  <si>
+    <t>学习数据的可视化</t>
+  </si>
+  <si>
+    <t>没能够实现</t>
   </si>
 </sst>
 </file>
@@ -132,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -163,29 +257,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,47 +341,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,9 +370,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,45 +379,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +600,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,39 +683,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,41 +700,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,149 +708,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,9 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1094,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1209,10 +1300,10 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1223,52 +1314,135 @@
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="40" customHeight="1" spans="1:1">
+    <row r="10" ht="40" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" ht="40" customHeight="1" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" ht="40" customHeight="1" spans="1:1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" ht="40" customHeight="1" spans="1:1">
-      <c r="A13" s="2"/>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="40" customHeight="1" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="40" customHeight="1" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" ht="40" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" ht="40" customHeight="1" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="40" customHeight="1" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="C16" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" ht="40" customHeight="1" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" ht="40" customHeight="1" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" ht="40" customHeight="1"/>
-    <row r="19" ht="40" customHeight="1" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" ht="40" customHeight="1" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" ht="40" customHeight="1" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
     </row>
     <row r="20" ht="40" customHeight="1" spans="1:3">
       <c r="A20" s="2"/>
@@ -1277,13 +1451,9 @@
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:3">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" ht="40" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="C22" s="4"/>
-    </row>
+    <row r="22" ht="35" customHeight="1"/>
     <row r="23" ht="35" customHeight="1"/>
     <row r="24" ht="35" customHeight="1"/>
     <row r="25" ht="35" customHeight="1"/>
@@ -1300,7 +1470,6 @@
     <row r="36" ht="35" customHeight="1"/>
     <row r="37" ht="35" customHeight="1"/>
     <row r="38" ht="35" customHeight="1"/>
-    <row r="39" ht="35" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/zutnlp-text/doc/log/语言处理工作日志.xlsx
+++ b/zutnlp-text/doc/log/语言处理工作日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>日志报告</t>
   </si>
@@ -219,6 +219,24 @@
   </si>
   <si>
     <t>没能够实现</t>
+  </si>
+  <si>
+    <t>2018.08.01</t>
+  </si>
+  <si>
+    <t>将数据库数据展示到前端</t>
+  </si>
+  <si>
+    <t>学习ajax在vue中的使用</t>
+  </si>
+  <si>
+    <t>数据只能单方面进行传输</t>
+  </si>
+  <si>
+    <t>2018.08.02</t>
+  </si>
+  <si>
+    <t>完成数据交换，学习vue前端</t>
   </si>
 </sst>
 </file>
@@ -226,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -257,39 +275,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,63 +326,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,6 +355,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -378,21 +411,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -409,25 +427,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,25 +559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,127 +589,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +618,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -618,11 +645,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,7 +673,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,21 +689,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,15 +718,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -708,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1434,14 +1452,26 @@
       </c>
     </row>
     <row r="18" ht="40" customHeight="1" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" ht="40" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" ht="40" customHeight="1" spans="1:3">

--- a/zutnlp-text/doc/log/语言处理工作日志.xlsx
+++ b/zutnlp-text/doc/log/语言处理工作日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>日志报告</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>完成数据交换，学习vue前端</t>
+  </si>
+  <si>
+    <t>学习vue和ajax</t>
+  </si>
+  <si>
+    <t>2018.08.03</t>
+  </si>
+  <si>
+    <t>前后台的交互操作</t>
   </si>
 </sst>
 </file>
@@ -244,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -274,8 +283,25 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,31 +315,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,6 +332,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -333,86 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,187 +436,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,15 +627,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,6 +641,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,18 +704,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,32 +727,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +747,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1215,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1465,18 +1474,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" ht="40" customHeight="1" spans="1:3">
+    <row r="19" ht="40" customHeight="1" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" ht="40" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" ht="40" customHeight="1" spans="1:3">
